--- a/test_table.xlsx
+++ b/test_table.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="192">
   <si>
     <t xml:space="preserve">Сводка присутствия сотрудников по состоянию на 10:00 22.03.2021</t>
   </si>
@@ -57,7 +57,7 @@
     <t xml:space="preserve">Присутствие</t>
   </si>
   <si>
-    <t xml:space="preserve">Иванов</t>
+    <t xml:space="preserve">Иванова</t>
   </si>
   <si>
     <t xml:space="preserve">Ольга</t>
@@ -78,7 +78,7 @@
     <t xml:space="preserve">НЕТ</t>
   </si>
   <si>
-    <t xml:space="preserve">Петров</t>
+    <t xml:space="preserve">Петрова</t>
   </si>
   <si>
     <t xml:space="preserve">Светлана</t>
@@ -114,22 +114,25 @@
     <t xml:space="preserve">9:41:00</t>
   </si>
   <si>
-    <t xml:space="preserve">Никоноров</t>
+    <t xml:space="preserve">Никонорова</t>
   </si>
   <si>
     <t xml:space="preserve">Элина</t>
   </si>
   <si>
+    <t xml:space="preserve">Аркадьевна</t>
+  </si>
+  <si>
     <t xml:space="preserve">директор</t>
   </si>
   <si>
-    <t xml:space="preserve">Алексеев</t>
+    <t xml:space="preserve">Алексейчинко</t>
   </si>
   <si>
     <t xml:space="preserve">Елена</t>
   </si>
   <si>
-    <t xml:space="preserve">Валерьевич</t>
+    <t xml:space="preserve">Валерьевна</t>
   </si>
   <si>
     <t xml:space="preserve">плотник</t>
@@ -141,451 +144,451 @@
     <t xml:space="preserve">Антон</t>
   </si>
   <si>
+    <t xml:space="preserve">Валентинович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">электрик</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:54:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ДА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Лёвочкин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Алексей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Александрович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">охранник</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Аршинин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тейлор</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Николаевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9:40:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9:46:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Морозов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Олег</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сергеевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Попукайло</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Юлия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Васильевна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Волкова</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Раиса</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Владимировна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Артем</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Владимирович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Окиржанов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вячеславович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Малышев</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Павел</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Викторович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9:28:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ленина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ринат</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:52:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рината</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Петровна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Проглотов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Андрей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Игоревич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гуливанова</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Валентина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Богданова</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Людмила</t>
+  </si>
+  <si>
     <t xml:space="preserve">Валентиновна</t>
   </si>
   <si>
-    <t xml:space="preserve">электрик</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:54:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ДА</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Лёвочкин</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Алексей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Александрович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">охранник</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Аршинин</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Тейлор</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Николаевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9:40:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9:46:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Морозов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Олег</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сергеевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Попукайло</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Юлия</t>
+    <t xml:space="preserve">9:02:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Воробьёв</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вячеслав</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фёдорова</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Наталья</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Алексеевна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9:47:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Михайлова</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Тарасов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Иван</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9:05:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9:06:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Беляев</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Комаров</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Белов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Валинтин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Чернов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Соколов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Юрий </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9:11:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Петрушкин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Юрий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6:56:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:47:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Комариков</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Глеб</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Рафаилович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:36:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шубарина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Борисовна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9:13:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Костромин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Михаил</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Борисович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Козлова</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Викторовна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Баранов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сергей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Анатольевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9:50:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Шубейкин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Юрьевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0:09:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7:29:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Киселёва</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Наталья </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Путин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:24:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Орникина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Гульнара</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Андреевна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Трамп</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Свифт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Николай</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Агутин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Байден</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Джо</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9:42:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пушкин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Анна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Романов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ворошилов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Роман</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стрелюхин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Александр</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Алексеевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Медведев</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Владимир</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Михайлович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Воронин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Татьяна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Анатольевна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Зайцев</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Леонид</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Яковлев</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Александр </t>
   </si>
   <si>
     <t xml:space="preserve">Васильевич</t>
   </si>
   <si>
-    <t xml:space="preserve">Волкова</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Нафис</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Владимировна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сидорова</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Артем</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Владимирович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Окиржанов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вячеславович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Малышева</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Павел</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Викторович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9:28:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ленина</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ринат</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Николаевна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:52:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сергей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Петрович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Проглотов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Андрей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Игоревич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Гуливанов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Валентина</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Богданов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Людмила</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9:02:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Воробьёв</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вячеслав</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фёдоров</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Наталья</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Алексеевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9:47:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Михайлов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Тарасов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Иван</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9:05:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9:06:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Беляев</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Комаров</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Белов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вера</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Черное</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Соколов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Юрий </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Викторовна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9:11:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Петрушкин</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Юрий</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6:56:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:47:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Комариков</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Глеб</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рафиловна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:36:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шубарин</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Борисович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9:13:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Костромин</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Михаил</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Козлов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Баранов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Салават</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Анатольевна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9:50:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шубейкин</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Юрьевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0:09:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7:29:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Киселёв</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Наталья </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Аркадьевна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Путин</t>
+    <t xml:space="preserve">Сорокин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Эдуардович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:43:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сергеева</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Петровная</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Орлов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вадим</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Трофимов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Марс</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8:42:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Емельянов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Колотыгина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Марина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Копылов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Панфилов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Архипов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Синичкин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Голованов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Константинович</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Головин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Витальевич</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Архипова</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Василиса</t>
   </si>
   <si>
     <t xml:space="preserve">Сергеевна</t>
   </si>
   <si>
-    <t xml:space="preserve">8:24:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Байден</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Гульнара</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Андреевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Трамп</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Свифт</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Николай</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вячеславовна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Агутин</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пугачёв</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Геннадьевна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9:42:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">пушкин</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Анна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Романов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ворошилов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Роман</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стрелюхин</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Александр</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Медведев</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Владимир</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Воронин</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Татьяна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Анатольевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Зайцев</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Леонид</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Михайлович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Яковлев</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Александр </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Васильевна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сорокин</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Эдуардовна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:43:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сергеев</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Орлов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вадим</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Трофимов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Марс</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8:42:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Емельянов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Колотыгин</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Марина</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Копылов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">панфилов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Архипов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Синичкин</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Голованов</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Константинович</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Головин</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Витальевич</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Архипова</t>
-  </si>
-  <si>
     <t xml:space="preserve">Горшков</t>
   </si>
   <si>
     <t xml:space="preserve">9:01:00</t>
   </si>
   <si>
-    <t xml:space="preserve">Чернов</t>
-  </si>
-  <si>
     <t xml:space="preserve">9:26:00</t>
   </si>
   <si>
     <t xml:space="preserve">Овчинников</t>
   </si>
   <si>
-    <t xml:space="preserve">Селезнёв</t>
+    <t xml:space="preserve">Селезнёва</t>
   </si>
   <si>
     <t xml:space="preserve">8:59:00</t>
@@ -595,9 +598,6 @@
   </si>
   <si>
     <t xml:space="preserve">Орлова</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Андрей  </t>
   </si>
 </sst>
 </file>
@@ -737,8 +737,8 @@
   </sheetPr>
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C71" activeCellId="0" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -792,7 +792,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -824,7 +824,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>18</v>
       </c>
@@ -888,7 +888,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
         <v>30</v>
       </c>
@@ -896,7 +896,7 @@
         <v>31</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D6" s="3" t="n">
         <v>11</v>
@@ -908,7 +908,7 @@
         <v>14</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>16</v>
@@ -920,15 +920,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D7" s="3" t="n">
         <v>12</v>
@@ -940,7 +940,7 @@
         <v>14</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>16</v>
@@ -954,13 +954,13 @@
     </row>
     <row r="8" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D8" s="3" t="n">
         <v>13</v>
@@ -972,27 +972,27 @@
         <v>14</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D9" s="3" t="n">
         <v>14</v>
@@ -1004,7 +1004,7 @@
         <v>14</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>16</v>
@@ -1018,13 +1018,13 @@
     </row>
     <row r="10" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D10" s="3" t="n">
         <v>21</v>
@@ -1039,10 +1039,10 @@
         <v>15</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>17</v>
@@ -1050,13 +1050,13 @@
     </row>
     <row r="11" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D11" s="3" t="n">
         <v>22</v>
@@ -1082,13 +1082,13 @@
     </row>
     <row r="12" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D12" s="3" t="n">
         <v>23</v>
@@ -1114,13 +1114,13 @@
     </row>
     <row r="13" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D13" s="3" t="n">
         <v>24</v>
@@ -1132,7 +1132,7 @@
         <v>14</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>16</v>
@@ -1144,9 +1144,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>62</v>
@@ -1164,7 +1164,7 @@
         <v>14</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>16</v>
@@ -1196,7 +1196,7 @@
         <v>14</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>16</v>
@@ -1208,7 +1208,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
         <v>66</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>14</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>69</v>
@@ -1237,10 +1237,10 @@
         <v>16</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
         <v>70</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>71</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="D17" s="3" t="n">
         <v>46</v>
@@ -1263,13 +1263,13 @@
         <v>15</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1277,10 +1277,10 @@
         <v>70</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="D18" s="3" t="n">
         <v>47</v>
@@ -1306,13 +1306,13 @@
     </row>
     <row r="19" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="D19" s="3" t="n">
         <v>48</v>
@@ -1336,15 +1336,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="C20" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D20" s="3" t="n">
         <v>49</v>
@@ -1356,7 +1356,7 @@
         <v>14</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>16</v>
@@ -1368,15 +1368,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="D21" s="3" t="n">
         <v>50</v>
@@ -1388,7 +1388,7 @@
         <v>14</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>83</v>
@@ -1397,7 +1397,7 @@
         <v>16</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1408,7 +1408,7 @@
         <v>85</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D22" s="3" t="n">
         <v>51</v>
@@ -1420,7 +1420,7 @@
         <v>14</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>16</v>
@@ -1432,7 +1432,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
         <v>86</v>
       </c>
@@ -1452,7 +1452,7 @@
         <v>14</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>89</v>
@@ -1461,10 +1461,10 @@
         <v>16</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
         <v>90</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>87</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D24" s="3" t="n">
         <v>53</v>
@@ -1533,7 +1533,7 @@
         <v>95</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>65</v>
@@ -1565,7 +1565,7 @@
         <v>96</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>65</v>
@@ -1580,7 +1580,7 @@
         <v>14</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>16</v>
@@ -1600,7 +1600,7 @@
         <v>98</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D28" s="3" t="n">
         <v>57</v>
@@ -1612,7 +1612,7 @@
         <v>14</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>16</v>
@@ -1624,7 +1624,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
         <v>99</v>
       </c>
@@ -1632,7 +1632,7 @@
         <v>85</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D29" s="3" t="n">
         <v>58</v>
@@ -1644,7 +1644,7 @@
         <v>14</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>16</v>
@@ -1664,7 +1664,7 @@
         <v>101</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="D30" s="3" t="n">
         <v>59</v>
@@ -1676,24 +1676,24 @@
         <v>14</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>63</v>
@@ -1711,10 +1711,10 @@
         <v>15</v>
       </c>
       <c r="H31" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="I31" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="J31" s="3" t="s">
         <v>17</v>
@@ -1722,13 +1722,13 @@
     </row>
     <row r="32" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="D32" s="3" t="n">
         <v>71</v>
@@ -1743,24 +1743,24 @@
         <v>21</v>
       </c>
       <c r="H32" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D33" s="3" t="n">
         <v>76</v>
@@ -1775,24 +1775,24 @@
         <v>27</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="C34" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="D34" s="3" t="n">
         <v>77</v>
@@ -1804,7 +1804,7 @@
         <v>14</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>16</v>
@@ -1816,15 +1816,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
         <v>117</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="D35" s="3" t="n">
         <v>78</v>
@@ -1836,7 +1836,7 @@
         <v>14</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>16</v>
@@ -1850,13 +1850,13 @@
     </row>
     <row r="36" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D36" s="3" t="n">
         <v>79</v>
@@ -1868,27 +1868,27 @@
         <v>14</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I36" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D37" s="3" t="n">
         <v>92</v>
@@ -1900,27 +1900,27 @@
         <v>14</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J37" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="D38" s="3" t="n">
         <v>93</v>
@@ -1949,10 +1949,10 @@
         <v>129</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="D39" s="3" t="n">
         <v>94</v>
@@ -1967,24 +1967,24 @@
         <v>21</v>
       </c>
       <c r="H39" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="I39" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2" t="s">
+      <c r="B40" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="C40" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>134</v>
       </c>
       <c r="D40" s="3" t="n">
         <v>95</v>
@@ -2010,7 +2010,7 @@
     </row>
     <row r="41" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>87</v>
@@ -2028,7 +2028,7 @@
         <v>14</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>16</v>
@@ -2042,13 +2042,13 @@
     </row>
     <row r="42" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>137</v>
-      </c>
       <c r="C42" s="3" t="s">
-        <v>138</v>
+        <v>65</v>
       </c>
       <c r="D42" s="3" t="n">
         <v>97</v>
@@ -2060,7 +2060,7 @@
         <v>14</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>16</v>
@@ -2074,13 +2074,13 @@
     </row>
     <row r="43" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D43" s="3" t="n">
         <v>98</v>
@@ -2092,7 +2092,7 @@
         <v>14</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>16</v>
@@ -2104,16 +2104,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>141</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="C44" s="3"/>
       <c r="D44" s="3" t="n">
         <v>99</v>
       </c>
@@ -2124,24 +2122,24 @@
         <v>14</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>144</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>13</v>
@@ -2170,13 +2168,13 @@
     </row>
     <row r="46" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D46" s="3" t="n">
         <v>101</v>
@@ -2202,13 +2200,13 @@
     </row>
     <row r="47" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D47" s="3" t="n">
         <v>102</v>
@@ -2234,13 +2232,13 @@
     </row>
     <row r="48" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="D48" s="3" t="n">
         <v>103</v>
@@ -2252,7 +2250,7 @@
         <v>14</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>16</v>
@@ -2266,13 +2264,13 @@
     </row>
     <row r="49" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="C49" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="D49" s="3" t="n">
         <v>104</v>
@@ -2284,7 +2282,7 @@
         <v>14</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>16</v>
@@ -2316,7 +2314,7 @@
         <v>14</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>16</v>
@@ -2336,7 +2334,7 @@
         <v>156</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D51" s="3" t="n">
         <v>106</v>
@@ -2348,7 +2346,7 @@
         <v>14</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" s="3" t="s">
         <v>16</v>
@@ -2362,13 +2360,13 @@
     </row>
     <row r="52" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="C52" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>160</v>
       </c>
       <c r="D52" s="3" t="n">
         <v>107</v>
@@ -2394,13 +2392,13 @@
     </row>
     <row r="53" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>161</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>162</v>
       </c>
       <c r="D53" s="3" t="n">
         <v>108</v>
@@ -2415,24 +2413,24 @@
         <v>21</v>
       </c>
       <c r="H53" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J53" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>75</v>
+        <v>164</v>
       </c>
       <c r="D54" s="3" t="n">
         <v>109</v>
@@ -2464,7 +2462,7 @@
         <v>166</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="D55" s="3" t="n">
         <v>110</v>
@@ -2476,7 +2474,7 @@
         <v>14</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H55" s="3" t="s">
         <v>16</v>
@@ -2496,7 +2494,7 @@
         <v>168</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D56" s="3" t="n">
         <v>111</v>
@@ -2508,7 +2506,7 @@
         <v>14</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H56" s="3" t="s">
         <v>169</v>
@@ -2517,7 +2515,7 @@
         <v>16</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2525,7 +2523,7 @@
         <v>170</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>68</v>
@@ -2540,7 +2538,7 @@
         <v>14</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>16</v>
@@ -2552,7 +2550,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="s">
         <v>171</v>
       </c>
@@ -2560,7 +2558,7 @@
         <v>172</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="D58" s="3" t="n">
         <v>113</v>
@@ -2572,7 +2570,7 @@
         <v>14</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>16</v>
@@ -2589,10 +2587,10 @@
         <v>173</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D59" s="3" t="n">
         <v>114</v>
@@ -2616,15 +2614,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="s">
         <v>174</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="D60" s="3" t="n">
         <v>115</v>
@@ -2653,10 +2651,10 @@
         <v>175</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D61" s="3" t="n">
         <v>116</v>
@@ -2685,7 +2683,7 @@
         <v>176</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>68</v>
@@ -2700,7 +2698,7 @@
         <v>14</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>16</v>
@@ -2717,7 +2715,7 @@
         <v>177</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>178</v>
@@ -2732,7 +2730,7 @@
         <v>14</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H63" s="3" t="s">
         <v>16</v>
@@ -2749,7 +2747,7 @@
         <v>179</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>180</v>
@@ -2764,7 +2762,7 @@
         <v>14</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H64" s="3" t="s">
         <v>16</v>
@@ -2781,10 +2779,10 @@
         <v>181</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>130</v>
+        <v>183</v>
       </c>
       <c r="D65" s="3" t="n">
         <v>120</v>
@@ -2796,7 +2794,7 @@
         <v>14</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" s="3" t="s">
         <v>16</v>
@@ -2810,13 +2808,13 @@
     </row>
     <row r="66" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>166</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="D66" s="3" t="n">
         <v>121</v>
@@ -2831,18 +2829,18 @@
         <v>15</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="s">
-        <v>184</v>
+        <v>99</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>19</v>
@@ -2863,10 +2861,10 @@
         <v>21</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J67" s="3" t="s">
         <v>17</v>
@@ -2874,13 +2872,13 @@
     </row>
     <row r="68" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>13</v>
+        <v>151</v>
       </c>
       <c r="D68" s="3" t="n">
         <v>145</v>
@@ -2904,15 +2902,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="D69" s="3" t="n">
         <v>122</v>
@@ -2924,27 +2922,27 @@
         <v>14</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I69" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>160</v>
+        <v>58</v>
       </c>
       <c r="D70" s="3" t="n">
         <v>145</v>
@@ -2956,27 +2954,27 @@
         <v>14</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I70" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J70" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>191</v>
+        <v>142</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D71" s="3" t="n">
         <v>146</v>
@@ -2988,7 +2986,7 @@
         <v>14</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H71" s="3" t="s">
         <v>16</v>
@@ -3086,7 +3084,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C71 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3109,7 +3107,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C71 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
